--- a/학습자료/순서배열/고려_연도(왕)_후기_연도별모음_문제.xlsx
+++ b/학습자료/순서배열/고려_연도(왕)_후기_연도별모음_문제.xlsx
@@ -453,21 +453,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄱ. 최충헌의 도방 재건 및 확대 
-ㄴ. 섬학전 마련 
-ㄷ. 몽골의 6차 침입 및 충주 다인철소 전투</t>
+          <t>ㄱ. 탐라총관부 설치 
+ㄴ. 최무선의 진포대첩 
+ㄷ. 상정고금예문 인쇄</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1200년 : 신종 - 최충헌의 도방 재건 및 확대
-ㄷ. 1254년 : 고종 - 몽골의 6차 침입 및 충주 다인철소 전투
-ㄴ. 1304년 : 충렬왕 - 섬학전 마련
+          <t xml:space="preserve">ㄷ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄱ. 1273년 : 원종 - 탐라총관부 설치
+ㄴ. 1380년 : 우왕 - 최무선의 진포대첩
 </t>
         </is>
       </c>
@@ -475,9 +475,9 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ㄱ. 몽골 사신 저고여 피살 
-ㄴ. 전주 관노의 난 
-ㄷ. 지눌의 수선사 결사 운동</t>
+          <t>ㄱ. 정세운 이방실 개경 수복 
+ㄴ. 원나라의 정동행성 설치 
+ㄷ. 이제현 역사서 사략 저술</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,9 +487,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1182년 : 명종 - 전주 관노의 난
-ㄷ. 1204년 : 신종 - 지눌의 수선사 결사 운동
-ㄱ. 1225년 : 고종 - 몽골 사신 저고여 피살
+          <t xml:space="preserve">ㄴ. 1280년 : 충렬왕 - 원나라의 정동행성 설치
+ㄷ. 1357년 : 공민왕 - 이제현 역사서 사략 저술
+ㄱ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
 </t>
         </is>
       </c>
@@ -497,9 +497,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ㄱ. 정지의 관음포 대첩 
-ㄴ. 도평의사사 건의로 무과 설치 
-ㄷ. 성균관 순수 유학교육기관으로 개편</t>
+          <t>ㄱ. 이연년의 난 
+ㄴ. 국자감을 국학으로 개칭 
+ㄷ. 귀법사 흥왕사 왕륜사 증광사 봉기</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,9 +509,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1367년 : 공민왕 - 성균관 순수 유학교육기관으로 개편
-ㄱ. 1383년 : 우왕 - 정지의 관음포 대첩
-ㄴ. 1390년 : 공양왕 - 도평의사사 건의로 무과 설치
+          <t xml:space="preserve">ㄷ. 1174년 : 명종 - 귀법사 흥왕사 왕륜사 증광사 봉기
+ㄱ. 1237년 : 고종 - 이연년의 난
+ㄴ. 1275년 : 충렬왕 - 국자감을 국학으로 개칭
 </t>
         </is>
       </c>
@@ -519,21 +519,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ㄱ. 흥왕사의 변 
-ㄴ. 소금 전매제 실시 
-ㄷ. 최충헌 집권</t>
+          <t>ㄱ. 이규보의 동명왕편 편찬 
+ㄴ. 정치도감 설치 
+ㄷ. 몽골과 강화 체결</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1196년 : 명종 - 최충헌 집권
-ㄴ. 1309년 : 충선왕 - 소금 전매제 실시
-ㄱ. 1363년 : 공민왕 - 흥왕사의 변
+          <t xml:space="preserve">ㄱ. 1193년 : 명종 - 이규보의 동명왕편 편찬
+ㄷ. 1259년 : 고종 - 몽골과 강화 체결
+ㄴ. 1347년 : 충목왕 - 정치도감 설치
 </t>
         </is>
       </c>
@@ -541,21 +541,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ㄱ. 탐라총관부 설치 
-ㄴ. 정세운 이방실 개경 수복 
-ㄷ. 이의민 집권</t>
+          <t>ㄱ. 이성계의 황산대첩 
+ㄴ. 최우의 강화도 천도 
+ㄷ. 상정고금예문 인쇄</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1183년 : 명종 - 이의민 집권
-ㄱ. 1273년 : 원종 - 탐라총관부 설치
-ㄴ. 1362년 : 공민왕 - 정세운 이방실 개경 수복
+          <t xml:space="preserve">ㄴ. 1232년 : 고종 - 최우의 강화도 천도
+ㄷ. 1234년 : 고종 - 상정고금예문 인쇄
+ㄱ. 1380년 : 우왕 - 이성계의 황산대첩
 </t>
         </is>
       </c>
